--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/17/word_level_predictions_17.xlsx
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18130,106 +18130,106 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
+      <c r="A341" t="n">
         <v>30</v>
       </c>
-      <c r="B341" s="2" t="inlineStr">
+      <c r="B341" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" s="2" t="inlineStr">
+      <c r="C341" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" s="2" t="n">
+      <c r="D341" t="n">
         <v>2</v>
       </c>
-      <c r="E341" s="2" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" s="2" t="inlineStr">
+      <c r="F341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L341" s="2" t="inlineStr">
+      <c r="G341" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" t="b">
+        <v>1</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K341" t="b">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="2" t="n">
+      <c r="A342" t="n">
         <v>30</v>
       </c>
-      <c r="B342" s="2" t="inlineStr">
+      <c r="B342" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" s="2" t="inlineStr">
+      <c r="C342" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" s="2" t="n">
+      <c r="D342" t="n">
         <v>3</v>
       </c>
-      <c r="E342" s="2" t="inlineStr">
+      <c r="E342" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G342" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L342" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K342" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
+      <c r="A387" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B387" t="inlineStr">
+      <c r="B387" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
+      <c r="C387" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" t="n">
+      <c r="D387" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E387" t="inlineStr">
+      <c r="E387" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G387" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K387" t="b">
-        <v>1</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F387" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K387" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L387" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
+      <c r="A388" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B388" t="inlineStr">
+      <c r="B388" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
+      <c r="C388" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" t="inlineStr">
+      <c r="D388" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" t="inlineStr">
+      <c r="F388" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K388" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L388" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B389" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C389" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D389" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E389" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G388" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K388" t="b">
-        <v>1</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
+      <c r="F389" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K389" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L389" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B389" t="inlineStr">
+      <c r="B390" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D389" t="n">
-        <v>2</v>
-      </c>
-      <c r="E389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G389" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K389" t="b">
-        <v>1</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>35</v>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr">
+      <c r="C390" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" t="n">
+      <c r="D390" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E390" t="inlineStr">
+      <c r="E390" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G390" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K390" t="b">
-        <v>1</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F390" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K390" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L390" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/17/word_level_predictions_17.xlsx
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -18130,106 +18130,106 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B341" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C341" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="E341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" t="b">
-        <v>1</v>
-      </c>
-      <c r="J341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K341" t="b">
-        <v>1</v>
-      </c>
-      <c r="L341" t="inlineStr">
+      <c r="G341" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J341" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L341" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B342" t="inlineStr">
+      <c r="B342" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C342" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E342" t="inlineStr">
+      <c r="E342" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" t="b">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K342" t="b">
-        <v>1</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F342" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G342" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J342" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L342" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="2" t="n">
+      <c r="A387" t="n">
         <v>35</v>
       </c>
-      <c r="B387" s="2" t="inlineStr">
+      <c r="B387" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" s="2" t="inlineStr">
+      <c r="C387" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" s="2" t="n">
+      <c r="D387" t="n">
         <v>0</v>
       </c>
-      <c r="E387" s="2" t="inlineStr">
+      <c r="E387" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K387" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L387" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G387" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K387" t="b">
+        <v>1</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="2" t="n">
+      <c r="A388" t="n">
         <v>35</v>
       </c>
-      <c r="B388" s="2" t="inlineStr">
+      <c r="B388" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" s="2" t="inlineStr">
+      <c r="C388" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" s="2" t="inlineStr">
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K388" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L388" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G388" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K388" t="b">
+        <v>1</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="2" t="n">
+      <c r="A389" t="n">
         <v>35</v>
       </c>
-      <c r="B389" s="2" t="inlineStr">
+      <c r="B389" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" s="2" t="inlineStr">
+      <c r="C389" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D389" s="2" t="n">
+      <c r="D389" t="n">
         <v>2</v>
       </c>
-      <c r="E389" s="2" t="inlineStr">
+      <c r="E389" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F389" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K389" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L389" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G389" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K389" t="b">
+        <v>1</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="2" t="n">
+      <c r="A390" t="n">
         <v>35</v>
       </c>
-      <c r="B390" s="2" t="inlineStr">
+      <c r="B390" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C390" s="2" t="inlineStr">
+      <c r="C390" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" s="2" t="n">
+      <c r="D390" t="n">
         <v>3</v>
       </c>
-      <c r="E390" s="2" t="inlineStr">
+      <c r="E390" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K390" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L390" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G390" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K390" t="b">
+        <v>1</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
